--- a/模块进度计划/各模块进度整合.xlsx
+++ b/模块进度计划/各模块进度整合.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
   <si>
     <t>登录</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -383,6 +383,78 @@
   </si>
   <si>
     <t>查看所有答题情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始时间：3月14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,6 +872,10 @@
         <v>79</v>
       </c>
       <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -821,6 +897,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -841,6 +921,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -861,6 +945,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
         <v>53</v>
       </c>
@@ -983,6 +1071,10 @@
         <v>76</v>
       </c>
       <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1027,6 +1119,10 @@
         <v>74</v>
       </c>
       <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1071,6 +1167,10 @@
         <v>74</v>
       </c>
       <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1115,6 +1215,10 @@
         <v>74</v>
       </c>
       <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -1161,6 +1265,10 @@
         <v>16</v>
       </c>
       <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -1207,6 +1315,10 @@
         <v>20</v>
       </c>
       <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -1242,6 +1354,10 @@
         <v>23</v>
       </c>
       <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -1288,6 +1404,10 @@
         <v>27</v>
       </c>
       <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -1334,13 +1454,17 @@
         <v>31</v>
       </c>
       <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
@@ -1348,43 +1472,47 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C50" s="5"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D55" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
@@ -1392,25 +1520,29 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>43</v>
       </c>
@@ -1418,25 +1550,29 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D63" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>47</v>
       </c>
@@ -1444,54 +1580,65 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C65" s="5"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C69" s="5"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D69" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="D70" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C49:C55"/>
+  <mergeCells count="35">
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="F11:J48"/>
     <mergeCell ref="C1:C5"/>
     <mergeCell ref="C6:C8"/>
@@ -1501,6 +1648,21 @@
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
